--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spon1-App.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spon1-App.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.545056</v>
+        <v>1.7342285</v>
       </c>
       <c r="H2">
-        <v>1.090112</v>
+        <v>3.468457</v>
       </c>
       <c r="I2">
-        <v>0.02422165523531875</v>
+        <v>0.07427267180267853</v>
       </c>
       <c r="J2">
-        <v>0.01749764391946633</v>
+        <v>0.05433978729120988</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="N2">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="O2">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="P2">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="Q2">
-        <v>55.537034268848</v>
+        <v>185.0443053799125</v>
       </c>
       <c r="R2">
-        <v>222.148137075392</v>
+        <v>740.1772215196499</v>
       </c>
       <c r="S2">
-        <v>0.004587216488346532</v>
+        <v>0.01345973862171882</v>
       </c>
       <c r="T2">
-        <v>0.002417504932342262</v>
+        <v>0.007140175545988147</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.545056</v>
+        <v>1.7342285</v>
       </c>
       <c r="H3">
-        <v>1.090112</v>
+        <v>3.468457</v>
       </c>
       <c r="I3">
-        <v>0.02422165523531875</v>
+        <v>0.07427267180267853</v>
       </c>
       <c r="J3">
-        <v>0.01749764391946633</v>
+        <v>0.05433978729120988</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>216.91135</v>
       </c>
       <c r="O3">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="P3">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="Q3">
-        <v>39.40961092853333</v>
+        <v>125.3912817144917</v>
       </c>
       <c r="R3">
-        <v>236.4576655712</v>
+        <v>752.34769028695</v>
       </c>
       <c r="S3">
-        <v>0.003255132713345006</v>
+        <v>0.009120701519856556</v>
       </c>
       <c r="T3">
-        <v>0.002573226948171582</v>
+        <v>0.007257578893387944</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.545056</v>
+        <v>1.7342285</v>
       </c>
       <c r="H4">
-        <v>1.090112</v>
+        <v>3.468457</v>
       </c>
       <c r="I4">
-        <v>0.02422165523531875</v>
+        <v>0.07427267180267853</v>
       </c>
       <c r="J4">
-        <v>0.01749764391946633</v>
+        <v>0.05433978729120988</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="N4">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="O4">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="P4">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="Q4">
-        <v>82.88872986538665</v>
+        <v>243.7741229087293</v>
       </c>
       <c r="R4">
-        <v>497.3323791923199</v>
+        <v>1462.644737452376</v>
       </c>
       <c r="S4">
-        <v>0.006846396343311443</v>
+        <v>0.01773162362577864</v>
       </c>
       <c r="T4">
-        <v>0.005412169985035307</v>
+        <v>0.01410951307767103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.545056</v>
+        <v>1.7342285</v>
       </c>
       <c r="H5">
-        <v>1.090112</v>
+        <v>3.468457</v>
       </c>
       <c r="I5">
-        <v>0.02422165523531875</v>
+        <v>0.07427267180267853</v>
       </c>
       <c r="J5">
-        <v>0.01749764391946633</v>
+        <v>0.05433978729120988</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="N5">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="O5">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="P5">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="Q5">
-        <v>20.269126377744</v>
+        <v>61.72228401184075</v>
       </c>
       <c r="R5">
-        <v>81.07650551097599</v>
+        <v>246.889136047363</v>
       </c>
       <c r="S5">
-        <v>0.001674177815730446</v>
+        <v>0.004489550803680419</v>
       </c>
       <c r="T5">
-        <v>0.0008823069801541492</v>
+        <v>0.002381634722771218</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.545056</v>
+        <v>1.7342285</v>
       </c>
       <c r="H6">
-        <v>1.090112</v>
+        <v>3.468457</v>
       </c>
       <c r="I6">
-        <v>0.02422165523531875</v>
+        <v>0.07427267180267853</v>
       </c>
       <c r="J6">
-        <v>0.01749764391946633</v>
+        <v>0.05433978729120988</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="N6">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="O6">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="P6">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="Q6">
-        <v>48.49717118692267</v>
+        <v>119.7201111494255</v>
       </c>
       <c r="R6">
-        <v>290.983027121536</v>
+        <v>718.320666896553</v>
       </c>
       <c r="S6">
-        <v>0.004005741866407204</v>
+        <v>0.008708192346292642</v>
       </c>
       <c r="T6">
-        <v>0.003166593753858309</v>
+        <v>0.006929334638834875</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.545056</v>
+        <v>1.7342285</v>
       </c>
       <c r="H7">
-        <v>1.090112</v>
+        <v>3.468457</v>
       </c>
       <c r="I7">
-        <v>0.02422165523531875</v>
+        <v>0.07427267180267853</v>
       </c>
       <c r="J7">
-        <v>0.01749764391946633</v>
+        <v>0.05433978729120988</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="N7">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="O7">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="P7">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="Q7">
-        <v>46.64781761779199</v>
+        <v>285.4475869395599</v>
       </c>
       <c r="R7">
-        <v>279.886905706752</v>
+        <v>1712.685521637359</v>
       </c>
       <c r="S7">
-        <v>0.003852990008178122</v>
+        <v>0.02076286488535145</v>
       </c>
       <c r="T7">
-        <v>0.00304584131990472</v>
+        <v>0.01652155041255667</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>14.024691</v>
       </c>
       <c r="I8">
-        <v>0.2077469900241919</v>
+        <v>0.2002141532054896</v>
       </c>
       <c r="J8">
-        <v>0.225113611444094</v>
+        <v>0.219722696797148</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="N8">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="O8">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="P8">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="Q8">
-        <v>476.3362203009136</v>
+        <v>498.817236648825</v>
       </c>
       <c r="R8">
-        <v>2858.017321805481</v>
+        <v>2992.90341989295</v>
       </c>
       <c r="S8">
-        <v>0.03934414922452324</v>
+        <v>0.03628293025022796</v>
       </c>
       <c r="T8">
-        <v>0.0311020882873284</v>
+        <v>0.02887126918922162</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>14.024691</v>
       </c>
       <c r="I9">
-        <v>0.2077469900241919</v>
+        <v>0.2002141532054896</v>
       </c>
       <c r="J9">
-        <v>0.225113611444094</v>
+        <v>0.219722696797148</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>216.91135</v>
       </c>
       <c r="O9">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="P9">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="Q9">
         <v>338.01273979365</v>
@@ -1013,10 +1013,10 @@
         <v>3042.11465814285</v>
       </c>
       <c r="S9">
-        <v>0.02791898475793025</v>
+        <v>0.02458634497880346</v>
       </c>
       <c r="T9">
-        <v>0.03310550917793718</v>
+        <v>0.02934598912077845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>14.024691</v>
       </c>
       <c r="I10">
-        <v>0.2077469900241919</v>
+        <v>0.2002141532054896</v>
       </c>
       <c r="J10">
-        <v>0.225113611444094</v>
+        <v>0.219722696797148</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="N10">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="O10">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="P10">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="Q10">
-        <v>710.92928906664</v>
+        <v>657.133080135432</v>
       </c>
       <c r="R10">
-        <v>6398.36360159976</v>
+        <v>5914.197721218888</v>
       </c>
       <c r="S10">
-        <v>0.05872093459416582</v>
+        <v>0.04779849604206234</v>
       </c>
       <c r="T10">
-        <v>0.0696295533666218</v>
+        <v>0.05705175560048609</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>14.024691</v>
       </c>
       <c r="I11">
-        <v>0.2077469900241919</v>
+        <v>0.2002141532054896</v>
       </c>
       <c r="J11">
-        <v>0.225113611444094</v>
+        <v>0.219722696797148</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="N11">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="O11">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="P11">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="Q11">
-        <v>173.8465003521405</v>
+        <v>166.3825270776615</v>
       </c>
       <c r="R11">
-        <v>1043.079002112843</v>
+        <v>998.295162465969</v>
       </c>
       <c r="S11">
-        <v>0.01435927473181621</v>
+        <v>0.01210231960982834</v>
       </c>
       <c r="T11">
-        <v>0.01135120314591994</v>
+        <v>0.009630129784436421</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>14.024691</v>
       </c>
       <c r="I12">
-        <v>0.2077469900241919</v>
+        <v>0.2002141532054896</v>
       </c>
       <c r="J12">
-        <v>0.225113611444094</v>
+        <v>0.219722696797148</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="N12">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="O12">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="P12">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="Q12">
-        <v>415.9559386379221</v>
+        <v>322.725170559771</v>
       </c>
       <c r="R12">
-        <v>3743.603447741299</v>
+        <v>2904.526535037939</v>
       </c>
       <c r="S12">
-        <v>0.03435689293217842</v>
+        <v>0.02347435892969493</v>
       </c>
       <c r="T12">
-        <v>0.04073939092532954</v>
+        <v>0.02801873488564388</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>14.024691</v>
       </c>
       <c r="I13">
-        <v>0.2077469900241919</v>
+        <v>0.2002141532054896</v>
       </c>
       <c r="J13">
-        <v>0.225113611444094</v>
+        <v>0.219722696797148</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="N13">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="O13">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="P13">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="Q13">
-        <v>400.094196996204</v>
+        <v>769.4707288232132</v>
       </c>
       <c r="R13">
-        <v>3600.847772965836</v>
+        <v>6925.236559408918</v>
       </c>
       <c r="S13">
-        <v>0.03304675378357798</v>
+        <v>0.05596970339487261</v>
       </c>
       <c r="T13">
-        <v>0.03918586654095712</v>
+        <v>0.06680481821658157</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.127485666666666</v>
+        <v>9.201576666666666</v>
       </c>
       <c r="H14">
-        <v>6.382457</v>
+        <v>27.60473</v>
       </c>
       <c r="I14">
-        <v>0.09454299069468508</v>
+        <v>0.394080528506202</v>
       </c>
       <c r="J14">
-        <v>0.1024463173667525</v>
+        <v>0.4324790984669206</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="N14">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="O14">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="P14">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="Q14">
-        <v>216.7745045942978</v>
+        <v>981.8195022647499</v>
       </c>
       <c r="R14">
-        <v>1300.647027565787</v>
+        <v>5890.917013588499</v>
       </c>
       <c r="S14">
-        <v>0.01790501770250075</v>
+        <v>0.07141551233937168</v>
       </c>
       <c r="T14">
-        <v>0.01415416147878603</v>
+        <v>0.05682717649364123</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.127485666666666</v>
+        <v>9.201576666666666</v>
       </c>
       <c r="H15">
-        <v>6.382457</v>
+        <v>27.60473</v>
       </c>
       <c r="I15">
-        <v>0.09454299069468508</v>
+        <v>0.394080528506202</v>
       </c>
       <c r="J15">
-        <v>0.1024463173667525</v>
+        <v>0.4324790984669206</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>216.91135</v>
       </c>
       <c r="O15">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="P15">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="Q15">
-        <v>153.8252626874389</v>
+        <v>665.3088056317222</v>
       </c>
       <c r="R15">
-        <v>1384.42736418695</v>
+        <v>5987.779250685499</v>
       </c>
       <c r="S15">
-        <v>0.01270557188754784</v>
+        <v>0.04839318134187235</v>
       </c>
       <c r="T15">
-        <v>0.01506589263116666</v>
+        <v>0.05776156538935699</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.127485666666666</v>
+        <v>9.201576666666666</v>
       </c>
       <c r="H16">
-        <v>6.382457</v>
+        <v>27.60473</v>
       </c>
       <c r="I16">
-        <v>0.09454299069468508</v>
+        <v>0.394080528506202</v>
       </c>
       <c r="J16">
-        <v>0.1024463173667525</v>
+        <v>0.4324790984669206</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="N16">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="O16">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="P16">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="Q16">
-        <v>323.5348014090577</v>
+        <v>1293.431794768738</v>
       </c>
       <c r="R16">
-        <v>2911.813212681519</v>
+        <v>11640.88615291864</v>
       </c>
       <c r="S16">
-        <v>0.02672314420667633</v>
+        <v>0.09408154358960204</v>
       </c>
       <c r="T16">
-        <v>0.03168751670119996</v>
+        <v>0.1122946886585527</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.127485666666666</v>
+        <v>9.201576666666666</v>
       </c>
       <c r="H17">
-        <v>6.382457</v>
+        <v>27.60473</v>
       </c>
       <c r="I17">
-        <v>0.09454299069468508</v>
+        <v>0.394080528506202</v>
       </c>
       <c r="J17">
-        <v>0.1024463173667525</v>
+        <v>0.4324790984669206</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="N17">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="O17">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="P17">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="Q17">
-        <v>79.11531263669349</v>
+        <v>327.4899059591783</v>
       </c>
       <c r="R17">
-        <v>474.6918758201609</v>
+        <v>1964.93943575507</v>
       </c>
       <c r="S17">
-        <v>0.006534721765135752</v>
+        <v>0.02382093589106644</v>
       </c>
       <c r="T17">
-        <v>0.005165786966507762</v>
+        <v>0.01895493687271439</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.127485666666666</v>
+        <v>9.201576666666666</v>
       </c>
       <c r="H18">
-        <v>6.382457</v>
+        <v>27.60473</v>
       </c>
       <c r="I18">
-        <v>0.09454299069468508</v>
+        <v>0.394080528506202</v>
       </c>
       <c r="J18">
-        <v>0.1024463173667525</v>
+        <v>0.4324790984669206</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="N18">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="O18">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="P18">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="Q18">
-        <v>189.2962128186051</v>
+        <v>635.2183586437966</v>
       </c>
       <c r="R18">
-        <v>1703.665915367446</v>
+        <v>5716.96522779417</v>
       </c>
       <c r="S18">
-        <v>0.01563538132806153</v>
+        <v>0.04620446469567973</v>
       </c>
       <c r="T18">
-        <v>0.01853997430582292</v>
+        <v>0.05514913743623872</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.127485666666666</v>
+        <v>9.201576666666666</v>
       </c>
       <c r="H19">
-        <v>6.382457</v>
+        <v>27.60473</v>
       </c>
       <c r="I19">
-        <v>0.09454299069468508</v>
+        <v>0.394080528506202</v>
       </c>
       <c r="J19">
-        <v>0.1024463173667525</v>
+        <v>0.4324790984669206</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="N19">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="O19">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="P19">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="Q19">
-        <v>182.077737632708</v>
+        <v>1514.545433626168</v>
       </c>
       <c r="R19">
-        <v>1638.699638694372</v>
+        <v>13630.90890263551</v>
       </c>
       <c r="S19">
-        <v>0.01503915380476288</v>
+        <v>0.1101648906486098</v>
       </c>
       <c r="T19">
-        <v>0.01783298528326917</v>
+        <v>0.1314915936164166</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.662958</v>
+        <v>4.485170999999999</v>
       </c>
       <c r="H20">
-        <v>9.325915999999999</v>
+        <v>8.970341999999999</v>
       </c>
       <c r="I20">
-        <v>0.2072164347383965</v>
+        <v>0.1920886628618382</v>
       </c>
       <c r="J20">
-        <v>0.1496924695727171</v>
+        <v>0.1405369812021329</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="N20">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="O20">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="P20">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="Q20">
-        <v>475.119727587989</v>
+        <v>478.5732400344749</v>
       </c>
       <c r="R20">
-        <v>1900.478910351956</v>
+        <v>1914.2929601379</v>
       </c>
       <c r="S20">
-        <v>0.03924367004870576</v>
+        <v>0.03481042396299751</v>
       </c>
       <c r="T20">
-        <v>0.02068177208269391</v>
+        <v>0.01846637181534913</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.662958</v>
+        <v>4.485170999999999</v>
       </c>
       <c r="H21">
-        <v>9.325915999999999</v>
+        <v>8.970341999999999</v>
       </c>
       <c r="I21">
-        <v>0.2072164347383965</v>
+        <v>0.1920886628618382</v>
       </c>
       <c r="J21">
-        <v>0.1496924695727171</v>
+        <v>0.1405369812021329</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>216.91135</v>
       </c>
       <c r="O21">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="P21">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="Q21">
-        <v>337.1495049244333</v>
+        <v>324.2948321969499</v>
       </c>
       <c r="R21">
-        <v>2022.8970295466</v>
+        <v>1945.7689931817</v>
       </c>
       <c r="S21">
-        <v>0.02784768377332568</v>
+        <v>0.02358853285856883</v>
       </c>
       <c r="T21">
-        <v>0.02201397504805426</v>
+        <v>0.01877000774859581</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.662958</v>
+        <v>4.485170999999999</v>
       </c>
       <c r="H22">
-        <v>9.325915999999999</v>
+        <v>8.970341999999999</v>
       </c>
       <c r="I22">
-        <v>0.2072164347383965</v>
+        <v>0.1920886628618382</v>
       </c>
       <c r="J22">
-        <v>0.1496924695727171</v>
+        <v>0.1405369812021329</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="N22">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="O22">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="P22">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="Q22">
-        <v>709.1136801276266</v>
+        <v>630.4639940011758</v>
       </c>
       <c r="R22">
-        <v>4254.68208076576</v>
+        <v>3782.783964007055</v>
       </c>
       <c r="S22">
-        <v>0.05857096995577489</v>
+        <v>0.0458586420816272</v>
       </c>
       <c r="T22">
-        <v>0.04630115314587908</v>
+        <v>0.03649091159561202</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.662958</v>
+        <v>4.485170999999999</v>
       </c>
       <c r="H23">
-        <v>9.325915999999999</v>
+        <v>8.970341999999999</v>
       </c>
       <c r="I23">
-        <v>0.2072164347383965</v>
+        <v>0.1920886628618382</v>
       </c>
       <c r="J23">
-        <v>0.1496924695727171</v>
+        <v>0.1405369812021329</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="N23">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="O23">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="P23">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="Q23">
-        <v>173.402521935567</v>
+        <v>159.6300593051445</v>
       </c>
       <c r="R23">
-        <v>693.6100877422679</v>
+        <v>638.5202372205779</v>
       </c>
       <c r="S23">
-        <v>0.0143226032541295</v>
+        <v>0.01161115912216533</v>
       </c>
       <c r="T23">
-        <v>0.007548142560701342</v>
+        <v>0.006159533758767374</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.662958</v>
+        <v>4.485170999999999</v>
       </c>
       <c r="H24">
-        <v>9.325915999999999</v>
+        <v>8.970341999999999</v>
       </c>
       <c r="I24">
-        <v>0.2072164347383965</v>
+        <v>0.1920886628618382</v>
       </c>
       <c r="J24">
-        <v>0.1496924695727171</v>
+        <v>0.1405369812021329</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="N24">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="O24">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="P24">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="Q24">
-        <v>414.8936482919747</v>
+        <v>309.6276936079529</v>
       </c>
       <c r="R24">
-        <v>2489.361889751848</v>
+        <v>1857.766161647718</v>
       </c>
       <c r="S24">
-        <v>0.03426915047609494</v>
+        <v>0.02252167564655621</v>
       </c>
       <c r="T24">
-        <v>0.02709023233815173</v>
+        <v>0.01792108177866853</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.662958</v>
+        <v>4.485170999999999</v>
       </c>
       <c r="H25">
-        <v>9.325915999999999</v>
+        <v>8.970341999999999</v>
       </c>
       <c r="I25">
-        <v>0.2072164347383965</v>
+        <v>0.1920886628618382</v>
       </c>
       <c r="J25">
-        <v>0.1496924695727171</v>
+        <v>0.1405369812021329</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="N25">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="O25">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="P25">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="Q25">
-        <v>399.0724152076559</v>
+        <v>738.242532031559</v>
       </c>
       <c r="R25">
-        <v>2394.434491245936</v>
+        <v>4429.455192189354</v>
       </c>
       <c r="S25">
-        <v>0.03296235723036576</v>
+        <v>0.05369822918992315</v>
       </c>
       <c r="T25">
-        <v>0.02605719439723675</v>
+        <v>0.04272907450514001</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.045218333333333</v>
+        <v>1.033468333333333</v>
       </c>
       <c r="H26">
-        <v>3.135655</v>
+        <v>3.100405</v>
       </c>
       <c r="I26">
-        <v>0.04644828809449759</v>
+        <v>0.04426086547426008</v>
       </c>
       <c r="J26">
-        <v>0.05033113537351593</v>
+        <v>0.04857357269143126</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="N26">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="O26">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="P26">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="Q26">
-        <v>106.4997475429342</v>
+        <v>110.272337165375</v>
       </c>
       <c r="R26">
-        <v>638.9984852576051</v>
+        <v>661.63402299225</v>
       </c>
       <c r="S26">
-        <v>0.008796605803052804</v>
+        <v>0.008020980880253121</v>
       </c>
       <c r="T26">
-        <v>0.006953837246653259</v>
+        <v>0.006382502641278063</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.045218333333333</v>
+        <v>1.033468333333333</v>
       </c>
       <c r="H27">
-        <v>3.135655</v>
+        <v>3.100405</v>
       </c>
       <c r="I27">
-        <v>0.04644828809449759</v>
+        <v>0.04426086547426008</v>
       </c>
       <c r="J27">
-        <v>0.05033113537351593</v>
+        <v>0.04857357269143126</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>216.91135</v>
       </c>
       <c r="O27">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="P27">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="Q27">
-        <v>75.57323990936111</v>
+        <v>74.72367045519445</v>
       </c>
       <c r="R27">
-        <v>680.15915918425</v>
+        <v>672.5130340967501</v>
       </c>
       <c r="S27">
-        <v>0.006242155648999881</v>
+        <v>0.005435244662717142</v>
       </c>
       <c r="T27">
-        <v>0.007401764173010627</v>
+        <v>0.006487447844662469</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.045218333333333</v>
+        <v>1.033468333333333</v>
       </c>
       <c r="H28">
-        <v>3.135655</v>
+        <v>3.100405</v>
       </c>
       <c r="I28">
-        <v>0.04644828809449759</v>
+        <v>0.04426086547426008</v>
       </c>
       <c r="J28">
-        <v>0.05033113537351593</v>
+        <v>0.04857357269143126</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="N28">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="O28">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="P28">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="Q28">
-        <v>158.9503098434222</v>
+        <v>145.2708432091156</v>
       </c>
       <c r="R28">
-        <v>1430.5527885908</v>
+        <v>1307.43758888204</v>
       </c>
       <c r="S28">
-        <v>0.01312888762860223</v>
+        <v>0.01056669955304472</v>
       </c>
       <c r="T28">
-        <v>0.01556784795913254</v>
+        <v>0.01261229558088125</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.045218333333333</v>
+        <v>1.033468333333333</v>
       </c>
       <c r="H29">
-        <v>3.135655</v>
+        <v>3.100405</v>
       </c>
       <c r="I29">
-        <v>0.04644828809449759</v>
+        <v>0.04426086547426008</v>
       </c>
       <c r="J29">
-        <v>0.05033113537351593</v>
+        <v>0.04857357269143126</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="N29">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="O29">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="P29">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="Q29">
-        <v>38.8687813558025</v>
+        <v>36.78178855164917</v>
       </c>
       <c r="R29">
-        <v>233.212688134815</v>
+        <v>220.690731309895</v>
       </c>
       <c r="S29">
-        <v>0.003210461578739465</v>
+        <v>0.002675430940325874</v>
       </c>
       <c r="T29">
-        <v>0.002537913805054213</v>
+        <v>0.002128909830121434</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.045218333333333</v>
+        <v>1.033468333333333</v>
       </c>
       <c r="H30">
-        <v>3.135655</v>
+        <v>3.100405</v>
       </c>
       <c r="I30">
-        <v>0.04644828809449759</v>
+        <v>0.04426086547426008</v>
       </c>
       <c r="J30">
-        <v>0.05033113537351593</v>
+        <v>0.04857357269143126</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="N30">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="O30">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="P30">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="Q30">
-        <v>92.9998613708989</v>
+        <v>71.34408397513833</v>
       </c>
       <c r="R30">
-        <v>836.9987523380902</v>
+        <v>642.0967557762451</v>
       </c>
       <c r="S30">
-        <v>0.007681549854271294</v>
+        <v>0.005189420558172782</v>
       </c>
       <c r="T30">
-        <v>0.009108555393624302</v>
+        <v>0.006194034915501863</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.045218333333333</v>
+        <v>1.033468333333333</v>
       </c>
       <c r="H31">
-        <v>3.135655</v>
+        <v>3.100405</v>
       </c>
       <c r="I31">
-        <v>0.04644828809449759</v>
+        <v>0.04426086547426008</v>
       </c>
       <c r="J31">
-        <v>0.05033113537351593</v>
+        <v>0.04857357269143126</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="N31">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="O31">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="P31">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="Q31">
-        <v>89.45347667781999</v>
+        <v>170.1050593554706</v>
       </c>
       <c r="R31">
-        <v>805.08129010038</v>
+        <v>1530.945534199235</v>
       </c>
       <c r="S31">
-        <v>0.007388627580831921</v>
+        <v>0.01237308887974644</v>
       </c>
       <c r="T31">
-        <v>0.008761216796040989</v>
+        <v>0.01476838187898618</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.447223666666668</v>
+        <v>2.220141666666667</v>
       </c>
       <c r="H32">
-        <v>28.341671</v>
+        <v>6.660425</v>
       </c>
       <c r="I32">
-        <v>0.4198236412129101</v>
+        <v>0.09508311814953165</v>
       </c>
       <c r="J32">
-        <v>0.4549188223234541</v>
+        <v>0.1043478635511574</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="N32">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="O32">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="P32">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="Q32">
-        <v>962.599777859777</v>
+        <v>236.891835506875</v>
       </c>
       <c r="R32">
-        <v>5775.598667158662</v>
+        <v>1421.35101304125</v>
       </c>
       <c r="S32">
-        <v>0.079508271026887</v>
+        <v>0.01723102032778295</v>
       </c>
       <c r="T32">
-        <v>0.06285237611669413</v>
+        <v>0.01371117004215076</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.447223666666668</v>
+        <v>2.220141666666667</v>
       </c>
       <c r="H33">
-        <v>28.341671</v>
+        <v>6.660425</v>
       </c>
       <c r="I33">
-        <v>0.4198236412129101</v>
+        <v>0.09508311814953165</v>
       </c>
       <c r="J33">
-        <v>0.4549188223234541</v>
+        <v>0.1043478635511574</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>216.91135</v>
       </c>
       <c r="O33">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="P33">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="Q33">
-        <v>683.0700130962056</v>
+        <v>160.5246420359722</v>
       </c>
       <c r="R33">
-        <v>6147.63011786585</v>
+        <v>1444.72177832375</v>
       </c>
       <c r="S33">
-        <v>0.05641982990308121</v>
+        <v>0.01167622921285374</v>
       </c>
       <c r="T33">
-        <v>0.0669009712519567</v>
+        <v>0.01393661789694766</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.447223666666668</v>
+        <v>2.220141666666667</v>
       </c>
       <c r="H34">
-        <v>28.341671</v>
+        <v>6.660425</v>
       </c>
       <c r="I34">
-        <v>0.4198236412129101</v>
+        <v>0.09508311814953165</v>
       </c>
       <c r="J34">
-        <v>0.4549188223234541</v>
+        <v>0.1043478635511574</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="N34">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="O34">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="P34">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="Q34">
-        <v>1436.675076476951</v>
+        <v>312.0771498823777</v>
       </c>
       <c r="R34">
-        <v>12930.07568829256</v>
+        <v>2808.6943489414</v>
       </c>
       <c r="S34">
-        <v>0.1186656739232519</v>
+        <v>0.02269984401089144</v>
       </c>
       <c r="T34">
-        <v>0.1407102583146921</v>
+        <v>0.02709428245480543</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.447223666666668</v>
+        <v>2.220141666666667</v>
       </c>
       <c r="H35">
-        <v>28.341671</v>
+        <v>6.660425</v>
       </c>
       <c r="I35">
-        <v>0.4198236412129101</v>
+        <v>0.09508311814953165</v>
       </c>
       <c r="J35">
-        <v>0.4549188223234541</v>
+        <v>0.1043478635511574</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="N35">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="O35">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="P35">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="Q35">
-        <v>351.3161407607305</v>
+        <v>79.01623949584582</v>
       </c>
       <c r="R35">
-        <v>2107.896844564383</v>
+        <v>474.097436975075</v>
       </c>
       <c r="S35">
-        <v>0.02901781153308464</v>
+        <v>0.005747477223369191</v>
       </c>
       <c r="T35">
-        <v>0.02293897705238767</v>
+        <v>0.004573416781125869</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.447223666666668</v>
+        <v>2.220141666666667</v>
       </c>
       <c r="H36">
-        <v>28.341671</v>
+        <v>6.660425</v>
       </c>
       <c r="I36">
-        <v>0.4198236412129101</v>
+        <v>0.09508311814953165</v>
       </c>
       <c r="J36">
-        <v>0.4549188223234541</v>
+        <v>0.1043478635511574</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="N36">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="O36">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="P36">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="Q36">
-        <v>840.5808272975266</v>
+        <v>153.2644672260917</v>
       </c>
       <c r="R36">
-        <v>7565.227445677739</v>
+        <v>1379.380205034825</v>
       </c>
       <c r="S36">
-        <v>0.06942981888627893</v>
+        <v>0.01114813916929174</v>
       </c>
       <c r="T36">
-        <v>0.08232783270205921</v>
+        <v>0.01330629546852153</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.447223666666668</v>
+        <v>2.220141666666667</v>
       </c>
       <c r="H37">
-        <v>28.341671</v>
+        <v>6.660425</v>
       </c>
       <c r="I37">
-        <v>0.4198236412129101</v>
+        <v>0.09508311814953165</v>
       </c>
       <c r="J37">
-        <v>0.4549188223234541</v>
+        <v>0.1043478635511574</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="N37">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="O37">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="P37">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="Q37">
-        <v>808.526768987324</v>
+        <v>365.4270941885528</v>
       </c>
       <c r="R37">
-        <v>7276.740920885915</v>
+        <v>3288.843847696975</v>
       </c>
       <c r="S37">
-        <v>0.06678223594032641</v>
+        <v>0.02658040820534259</v>
       </c>
       <c r="T37">
-        <v>0.07918840688566434</v>
+        <v>0.03172608090760611</v>
       </c>
     </row>
   </sheetData>
